--- a/analysis/cfg-case-study/result-summary/maximum-range-analysis/maximum-range_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/maximum-range-analysis/maximum-range_1500_3000_ft.xlsx
@@ -937,7 +937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -978,9 +978,6 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1008,9 +1005,6 @@
     <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1024,9 +1018,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1471,7 +1462,7 @@
       <c r="H4" s="13">
         <v>6.7749322872</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="32">
         <f t="shared" ref="I4:I9" si="1">G4+H4</f>
         <v>88.9954886524</v>
       </c>
@@ -1481,7 +1472,7 @@
       <c r="K4" s="13">
         <v>1703.542741</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="33">
         <v>1017.778661</v>
       </c>
     </row>
@@ -1490,113 +1481,113 @@
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15">
+      <c r="C5" s="8"/>
+      <c r="D5" s="14">
         <v>3175.496799</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>1915</v>
       </c>
       <c r="F5" s="1">
         <f>E5*$B$1</f>
         <v>128496.5</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>79.8439987015</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>12.3855395946</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="34">
         <f t="shared" si="1"/>
         <v>92.2295382961</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>165.553824</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <v>1712.176119</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="35">
         <v>1009.320679</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>2404</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>2404.123693</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>921</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <f>E6*$B$1</f>
         <v>61799.1</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <f t="shared" si="0"/>
         <v>38.4001685661</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>6.7749322872</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="36">
         <f t="shared" si="1"/>
         <v>45.1751008533</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>58.880014</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>1591.154861</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="37">
         <v>358.969756</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="21">
+      <c r="C7" s="17"/>
+      <c r="D7" s="20">
         <v>2404.395749</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>767</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <f>E7*$B$1</f>
         <v>51465.7</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <f t="shared" si="0"/>
         <v>31.9792934747</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>12.3855395946</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="36">
         <f t="shared" si="1"/>
         <v>44.3648330693</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>57.669972</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>1598.803175</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="37">
         <v>351.592574</v>
       </c>
     </row>
@@ -1607,113 +1598,113 @@
       <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="23">
         <v>3200</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>3200.333335</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>1531</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f>E8*$B$1</f>
         <v>102730.1</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <f t="shared" si="0"/>
         <v>63.8335049671</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>6.7749322872</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="34">
         <f t="shared" si="1"/>
         <v>70.6084372543</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>134.24831</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>1927.870844</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="35">
         <v>818.462491</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="28">
+      <c r="C9" s="24"/>
+      <c r="D9" s="26">
         <v>3200.119274</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="27">
         <v>1447</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="26">
         <f>E9*$B$1</f>
         <v>97093.7</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="28">
         <f t="shared" si="0"/>
         <v>60.3312094627</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="28">
         <v>12.3855395946</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="38">
         <f t="shared" si="1"/>
         <v>72.7167490573</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="28">
         <v>132.943718</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="28">
         <v>1935.610402</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="39">
         <v>810.508873</v>
       </c>
     </row>
     <row r="10" spans="11:11">
-      <c r="K10" s="17"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="32"/>
+      <c r="B11" s="29"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="29" t="s">
         <v>24</v>
       </c>
     </row>

--- a/analysis/cfg-case-study/result-summary/maximum-range-analysis/maximum-range_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/maximum-range-analysis/maximum-range_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="27948" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Max. Mission Range" sheetId="6" r:id="rId1"/>
@@ -937,7 +937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -978,6 +978,39 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -985,27 +1018,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1038,16 +1050,19 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1378,7 +1393,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1446,34 +1461,34 @@
         <v>3175</v>
       </c>
       <c r="D4" s="11">
-        <v>3175.321402</v>
+        <v>3175.328796</v>
       </c>
       <c r="E4" s="12">
-        <v>1972</v>
+        <v>1914.5</v>
       </c>
       <c r="F4" s="11">
         <f>E4*$B$1</f>
-        <v>132321.2</v>
+        <v>128462.95</v>
       </c>
       <c r="G4" s="13">
         <f t="shared" ref="G4:G9" si="0">F4*0.000621371</f>
-        <v>82.2205563652</v>
+        <v>79.82315170445</v>
       </c>
       <c r="H4" s="13">
         <v>6.7749322872</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="36">
         <f t="shared" ref="I4:I9" si="1">G4+H4</f>
-        <v>88.9954886524</v>
+        <v>86.59808399165</v>
       </c>
       <c r="J4" s="13">
-        <v>166.941145</v>
+        <v>166.941873</v>
       </c>
       <c r="K4" s="13">
-        <v>1703.542741</v>
-      </c>
-      <c r="L4" s="33">
-        <v>1017.778661</v>
+        <v>1703.545696</v>
+      </c>
+      <c r="L4" s="37">
+        <v>1017.7831</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1486,109 +1501,109 @@
         <v>3175.496799</v>
       </c>
       <c r="E5" s="15">
-        <v>1915</v>
-      </c>
-      <c r="F5" s="1">
+        <v>1798.5</v>
+      </c>
+      <c r="F5" s="16">
         <f>E5*$B$1</f>
-        <v>128496.5</v>
-      </c>
-      <c r="G5" s="16">
+        <v>120679.35</v>
+      </c>
+      <c r="G5" s="17">
         <f t="shared" si="0"/>
-        <v>79.8439987015</v>
-      </c>
-      <c r="H5" s="16">
+        <v>74.98664838885</v>
+      </c>
+      <c r="H5" s="17">
         <v>12.3855395946</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="38">
         <f t="shared" si="1"/>
-        <v>92.2295382961</v>
-      </c>
-      <c r="J5" s="16">
-        <v>165.553824</v>
-      </c>
-      <c r="K5" s="16">
-        <v>1712.176119</v>
-      </c>
-      <c r="L5" s="35">
-        <v>1009.320679</v>
+        <v>87.37218798345</v>
+      </c>
+      <c r="J5" s="17">
+        <v>165.533491</v>
+      </c>
+      <c r="K5" s="17">
+        <v>1712.089707</v>
+      </c>
+      <c r="L5" s="39">
+        <v>1009.196711</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="20">
         <v>2404</v>
       </c>
-      <c r="D6" s="20">
-        <v>2404.123693</v>
-      </c>
-      <c r="E6" s="21">
-        <v>921</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="D6" s="21">
+        <v>2404.145077</v>
+      </c>
+      <c r="E6" s="22">
+        <v>866.5</v>
+      </c>
+      <c r="F6" s="21">
         <f>E6*$B$1</f>
-        <v>61799.1</v>
-      </c>
-      <c r="G6" s="22">
+        <v>58142.15</v>
+      </c>
+      <c r="G6" s="23">
         <f t="shared" si="0"/>
-        <v>38.4001685661</v>
-      </c>
-      <c r="H6" s="22">
+        <v>36.12784588765</v>
+      </c>
+      <c r="H6" s="23">
         <v>6.7749322872</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="40">
         <f t="shared" si="1"/>
-        <v>45.1751008533</v>
-      </c>
-      <c r="J6" s="22">
-        <v>58.880014</v>
-      </c>
-      <c r="K6" s="22">
-        <v>1591.154861</v>
-      </c>
-      <c r="L6" s="37">
-        <v>358.969756</v>
+        <v>42.90277817485</v>
+      </c>
+      <c r="J6" s="23">
+        <v>58.881629</v>
+      </c>
+      <c r="K6" s="23">
+        <v>1591.165473</v>
+      </c>
+      <c r="L6" s="41">
+        <v>358.979604</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="20">
-        <v>2404.395749</v>
-      </c>
-      <c r="E7" s="21">
-        <v>767</v>
-      </c>
-      <c r="F7" s="20">
+      <c r="C7" s="18"/>
+      <c r="D7" s="21">
+        <v>2404.315738</v>
+      </c>
+      <c r="E7" s="22">
+        <v>658.5</v>
+      </c>
+      <c r="F7" s="21">
         <f>E7*$B$1</f>
-        <v>51465.7</v>
-      </c>
-      <c r="G7" s="22">
+        <v>44185.35</v>
+      </c>
+      <c r="G7" s="23">
         <f t="shared" si="0"/>
-        <v>31.9792934747</v>
-      </c>
-      <c r="H7" s="22">
+        <v>27.45549511485</v>
+      </c>
+      <c r="H7" s="23">
         <v>12.3855395946</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="40">
         <f t="shared" si="1"/>
-        <v>44.3648330693</v>
-      </c>
-      <c r="J7" s="22">
-        <v>57.669972</v>
-      </c>
-      <c r="K7" s="22">
-        <v>1598.803175</v>
-      </c>
-      <c r="L7" s="37">
-        <v>351.592574</v>
+        <v>39.84103470945</v>
+      </c>
+      <c r="J7" s="23">
+        <v>57.663671</v>
+      </c>
+      <c r="K7" s="23">
+        <v>1598.761578</v>
+      </c>
+      <c r="L7" s="41">
+        <v>351.55416</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1598,113 +1613,113 @@
       <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="23">
-        <v>3200</v>
-      </c>
-      <c r="D8" s="14">
-        <v>3200.333335</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1531</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="C8" s="24">
+        <v>3350</v>
+      </c>
+      <c r="D8" s="25">
+        <v>3350.486141</v>
+      </c>
+      <c r="E8" s="26">
+        <v>1446</v>
+      </c>
+      <c r="F8" s="25">
         <f>E8*$B$1</f>
-        <v>102730.1</v>
-      </c>
-      <c r="G8" s="16">
+        <v>97026.6</v>
+      </c>
+      <c r="G8" s="27">
         <f t="shared" si="0"/>
-        <v>63.8335049671</v>
-      </c>
-      <c r="H8" s="16">
+        <v>60.2895154686</v>
+      </c>
+      <c r="H8" s="27">
         <v>6.7749322872</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="42">
         <f t="shared" si="1"/>
-        <v>70.6084372543</v>
-      </c>
-      <c r="J8" s="16">
-        <v>134.24831</v>
-      </c>
-      <c r="K8" s="16">
-        <v>1927.870844</v>
-      </c>
-      <c r="L8" s="35">
-        <v>818.462491</v>
+        <v>67.0644477558</v>
+      </c>
+      <c r="J8" s="27">
+        <v>146.554946</v>
+      </c>
+      <c r="K8" s="27">
+        <v>2002.994627</v>
+      </c>
+      <c r="L8" s="39">
+        <v>893.491514</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="26">
-        <v>3200.119274</v>
-      </c>
-      <c r="E9" s="27">
-        <v>1447</v>
-      </c>
-      <c r="F9" s="26">
+      <c r="C9" s="28"/>
+      <c r="D9" s="30">
+        <v>3350.158121</v>
+      </c>
+      <c r="E9" s="31">
+        <v>1333.5</v>
+      </c>
+      <c r="F9" s="30">
         <f>E9*$B$1</f>
-        <v>97093.7</v>
-      </c>
-      <c r="G9" s="28">
+        <v>89477.85</v>
+      </c>
+      <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>60.3312094627</v>
-      </c>
-      <c r="H9" s="28">
+        <v>55.59894113235</v>
+      </c>
+      <c r="H9" s="32">
         <v>12.3855395946</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="43">
         <f t="shared" si="1"/>
-        <v>72.7167490573</v>
-      </c>
-      <c r="J9" s="28">
-        <v>132.943718</v>
-      </c>
-      <c r="K9" s="28">
-        <v>1935.610402</v>
-      </c>
-      <c r="L9" s="39">
-        <v>810.508873</v>
+        <v>67.98448072695</v>
+      </c>
+      <c r="J9" s="32">
+        <v>145.115941</v>
+      </c>
+      <c r="K9" s="32">
+        <v>2011.439687</v>
+      </c>
+      <c r="L9" s="44">
+        <v>884.718434</v>
       </c>
     </row>
     <row r="10" spans="11:11">
-      <c r="K10" s="16"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="29"/>
+      <c r="B11" s="33"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="35" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="33" t="s">
         <v>24</v>
       </c>
     </row>

--- a/analysis/cfg-case-study/result-summary/maximum-range-analysis/maximum-range_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/maximum-range-analysis/maximum-range_1500_3000_ft.xlsx
@@ -346,18 +346,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1393,7 +1393,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1461,34 +1461,34 @@
         <v>3175</v>
       </c>
       <c r="D4" s="11">
-        <v>3175.328796</v>
+        <v>3174.907379</v>
       </c>
       <c r="E4" s="12">
-        <v>1914.5</v>
+        <v>1935</v>
       </c>
       <c r="F4" s="11">
         <f>E4*$B$1</f>
-        <v>128462.95</v>
+        <v>129838.5</v>
       </c>
       <c r="G4" s="13">
         <f t="shared" ref="G4:G9" si="0">F4*0.000621371</f>
-        <v>79.82315170445</v>
+        <v>80.6778785835</v>
       </c>
       <c r="H4" s="13">
         <v>6.7749322872</v>
       </c>
       <c r="I4" s="36">
         <f t="shared" ref="I4:I9" si="1">G4+H4</f>
-        <v>86.59808399165</v>
+        <v>87.4528108707</v>
       </c>
       <c r="J4" s="13">
-        <v>166.941873</v>
+        <v>167.002291</v>
       </c>
       <c r="K4" s="13">
-        <v>1703.545696</v>
+        <v>1702.755931</v>
       </c>
       <c r="L4" s="37">
-        <v>1017.7831</v>
+        <v>1018.151448</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1498,34 +1498,34 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="14">
-        <v>3175.496799</v>
+        <v>3174.961819</v>
       </c>
       <c r="E5" s="15">
-        <v>1798.5</v>
+        <v>1842.5</v>
       </c>
       <c r="F5" s="16">
         <f>E5*$B$1</f>
-        <v>120679.35</v>
+        <v>123631.75</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" si="0"/>
-        <v>74.98664838885</v>
+        <v>76.82118412925</v>
       </c>
       <c r="H5" s="17">
         <v>12.3855395946</v>
       </c>
       <c r="I5" s="38">
         <f t="shared" si="1"/>
-        <v>87.37218798345</v>
+        <v>89.20672372385</v>
       </c>
       <c r="J5" s="17">
-        <v>165.533491</v>
+        <v>165.813303</v>
       </c>
       <c r="K5" s="17">
-        <v>1712.089707</v>
+        <v>1710.059193</v>
       </c>
       <c r="L5" s="39">
-        <v>1009.196711</v>
+        <v>1010.902626</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1539,34 +1539,34 @@
         <v>2404</v>
       </c>
       <c r="D6" s="21">
-        <v>2404.145077</v>
+        <v>2404.237639</v>
       </c>
       <c r="E6" s="22">
-        <v>866.5</v>
+        <v>877</v>
       </c>
       <c r="F6" s="21">
         <f>E6*$B$1</f>
-        <v>58142.15</v>
+        <v>58846.7</v>
       </c>
       <c r="G6" s="23">
         <f t="shared" si="0"/>
-        <v>36.12784588765</v>
+        <v>36.5656328257</v>
       </c>
       <c r="H6" s="23">
         <v>6.7749322872</v>
       </c>
       <c r="I6" s="40">
         <f t="shared" si="1"/>
-        <v>42.90277817485</v>
+        <v>43.3405651129</v>
       </c>
       <c r="J6" s="23">
-        <v>58.881629</v>
+        <v>58.905729</v>
       </c>
       <c r="K6" s="23">
-        <v>1591.165473</v>
+        <v>1591.11111</v>
       </c>
       <c r="L6" s="41">
-        <v>358.979604</v>
+        <v>359.126529</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1576,34 +1576,34 @@
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="21">
-        <v>2404.315738</v>
+        <v>2404.583162</v>
       </c>
       <c r="E7" s="22">
-        <v>658.5</v>
+        <v>678</v>
       </c>
       <c r="F7" s="21">
         <f>E7*$B$1</f>
-        <v>44185.35</v>
+        <v>45493.8</v>
       </c>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
-        <v>27.45549511485</v>
+        <v>28.2685279998</v>
       </c>
       <c r="H7" s="23">
         <v>12.3855395946</v>
       </c>
       <c r="I7" s="40">
         <f t="shared" si="1"/>
-        <v>39.84103470945</v>
+        <v>40.6540675944</v>
       </c>
       <c r="J7" s="23">
-        <v>57.663671</v>
+        <v>57.777786</v>
       </c>
       <c r="K7" s="23">
-        <v>1598.761578</v>
+        <v>1598.333286</v>
       </c>
       <c r="L7" s="41">
-        <v>351.55416</v>
+        <v>352.249875</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1617,34 +1617,34 @@
         <v>3350</v>
       </c>
       <c r="D8" s="25">
-        <v>3350.486141</v>
+        <v>3349.94892</v>
       </c>
       <c r="E8" s="26">
-        <v>1446</v>
+        <v>1466</v>
       </c>
       <c r="F8" s="25">
         <f>E8*$B$1</f>
-        <v>97026.6</v>
+        <v>98368.6</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" si="0"/>
-        <v>60.2895154686</v>
+        <v>61.1233953506</v>
       </c>
       <c r="H8" s="27">
         <v>6.7749322872</v>
       </c>
       <c r="I8" s="42">
         <f t="shared" si="1"/>
-        <v>67.0644477558</v>
+        <v>67.8983276378</v>
       </c>
       <c r="J8" s="27">
-        <v>146.554946</v>
+        <v>146.446109</v>
       </c>
       <c r="K8" s="27">
-        <v>2002.994627</v>
+        <v>2003.120942</v>
       </c>
       <c r="L8" s="39">
-        <v>893.491514</v>
+        <v>892.827978</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1654,34 +1654,34 @@
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="30">
-        <v>3350.158121</v>
+        <v>3350.250069</v>
       </c>
       <c r="E9" s="31">
-        <v>1333.5</v>
+        <v>1375</v>
       </c>
       <c r="F9" s="30">
         <f>E9*$B$1</f>
-        <v>89477.85</v>
+        <v>92262.5</v>
       </c>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>55.59894113235</v>
+        <v>57.3292418875</v>
       </c>
       <c r="H9" s="32">
         <v>12.3855395946</v>
       </c>
       <c r="I9" s="43">
         <f t="shared" si="1"/>
-        <v>67.98448072695</v>
+        <v>69.7147814821</v>
       </c>
       <c r="J9" s="32">
-        <v>145.115941</v>
+        <v>145.073868</v>
       </c>
       <c r="K9" s="32">
-        <v>2011.439687</v>
+        <v>2011.788138</v>
       </c>
       <c r="L9" s="44">
-        <v>884.718434</v>
+        <v>884.461932</v>
       </c>
     </row>
     <row r="10" spans="11:11">

--- a/analysis/cfg-case-study/result-summary/maximum-range-analysis/maximum-range_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/maximum-range-analysis/maximum-range_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Max. Mission Range" sheetId="6" r:id="rId1"/>
@@ -346,18 +346,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1393,7 +1393,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L8" sqref="L8:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1461,7 +1461,7 @@
         <v>3175</v>
       </c>
       <c r="D4" s="11">
-        <v>3174.907379</v>
+        <v>3175.151512</v>
       </c>
       <c r="E4" s="12">
         <v>1935</v>
@@ -1482,13 +1482,13 @@
         <v>87.4528108707</v>
       </c>
       <c r="J4" s="13">
-        <v>167.002291</v>
+        <v>167.026319</v>
       </c>
       <c r="K4" s="13">
-        <v>1702.755931</v>
+        <v>1702.853576</v>
       </c>
       <c r="L4" s="37">
-        <v>1018.151448</v>
+        <v>1018.297936</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="14">
-        <v>3174.961819</v>
+        <v>3175.094727</v>
       </c>
       <c r="E5" s="15">
         <v>1842.5</v>
@@ -1519,13 +1519,13 @@
         <v>89.20672372385</v>
       </c>
       <c r="J5" s="17">
-        <v>165.813303</v>
+        <v>165.826374</v>
       </c>
       <c r="K5" s="17">
-        <v>1710.059193</v>
+        <v>1710.112414</v>
       </c>
       <c r="L5" s="39">
-        <v>1010.902626</v>
+        <v>1010.982313</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1539,7 +1539,7 @@
         <v>2404</v>
       </c>
       <c r="D6" s="21">
-        <v>2404.237639</v>
+        <v>2404.406524</v>
       </c>
       <c r="E6" s="22">
         <v>877</v>
@@ -1560,13 +1560,13 @@
         <v>43.3405651129</v>
       </c>
       <c r="J6" s="23">
-        <v>58.905729</v>
+        <v>58.919231</v>
       </c>
       <c r="K6" s="23">
-        <v>1591.11111</v>
+        <v>1591.197678</v>
       </c>
       <c r="L6" s="41">
-        <v>359.126529</v>
+        <v>359.208846</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="21">
-        <v>2404.583162</v>
+        <v>2404.674795</v>
       </c>
       <c r="E7" s="22">
         <v>678</v>
@@ -1597,13 +1597,13 @@
         <v>40.6540675944</v>
       </c>
       <c r="J7" s="23">
-        <v>57.777786</v>
+        <v>57.785061</v>
       </c>
       <c r="K7" s="23">
-        <v>1598.333286</v>
+        <v>1598.380562</v>
       </c>
       <c r="L7" s="41">
-        <v>352.249875</v>
+        <v>352.294232</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1617,7 +1617,7 @@
         <v>3350</v>
       </c>
       <c r="D8" s="25">
-        <v>3349.94892</v>
+        <v>3350.144741</v>
       </c>
       <c r="E8" s="26">
         <v>1466</v>
@@ -1638,13 +1638,13 @@
         <v>67.8983276378</v>
       </c>
       <c r="J8" s="27">
-        <v>146.446109</v>
+        <v>146.463956</v>
       </c>
       <c r="K8" s="27">
-        <v>2003.120942</v>
+        <v>2003.207958</v>
       </c>
       <c r="L8" s="39">
-        <v>892.827978</v>
+        <v>892.936783</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="30">
-        <v>3350.250069</v>
+        <v>3350.358961</v>
       </c>
       <c r="E9" s="31">
         <v>1375</v>
@@ -1675,13 +1675,13 @@
         <v>69.7147814821</v>
       </c>
       <c r="J9" s="32">
-        <v>145.073868</v>
+        <v>145.083679</v>
       </c>
       <c r="K9" s="32">
-        <v>2011.788138</v>
+        <v>2011.837219</v>
       </c>
       <c r="L9" s="44">
-        <v>884.461932</v>
+        <v>884.521741</v>
       </c>
     </row>
     <row r="10" spans="11:11">
